--- a/Code/Results/Cases/Case_5_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_242/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.146702832476592</v>
+        <v>1.083068580487122</v>
       </c>
       <c r="C2">
-        <v>1.248334576981165</v>
+        <v>0.3889912089761083</v>
       </c>
       <c r="D2">
-        <v>0.01306212442315768</v>
+        <v>0.0257865923873819</v>
       </c>
       <c r="E2">
-        <v>0.143988789752477</v>
+        <v>0.07562253673345154</v>
       </c>
       <c r="F2">
-        <v>1.772302535921838</v>
+        <v>1.260833122626792</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7759202283081663</v>
+        <v>0.7608190033731219</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.182501040243864</v>
+        <v>0.4319326158130963</v>
       </c>
       <c r="N2">
-        <v>0.6512778613175954</v>
+        <v>1.253478116961475</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.712691443168524</v>
+        <v>0.9674094650524125</v>
       </c>
       <c r="C3">
-        <v>1.07378198296135</v>
+        <v>0.3422684674269476</v>
       </c>
       <c r="D3">
-        <v>0.0139720898935547</v>
+        <v>0.02618341187955409</v>
       </c>
       <c r="E3">
-        <v>0.1249383379666114</v>
+        <v>0.07133779144054841</v>
       </c>
       <c r="F3">
-        <v>1.567258490174254</v>
+        <v>1.217775299302218</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7059569023808407</v>
+        <v>0.749140164128562</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.017834837231014</v>
+        <v>0.3895921539997005</v>
       </c>
       <c r="N3">
-        <v>0.6915412449172251</v>
+        <v>1.269049954758387</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.449874571939915</v>
+        <v>0.8967779099125437</v>
       </c>
       <c r="C4">
-        <v>0.9683777583634594</v>
+        <v>0.313687255838488</v>
       </c>
       <c r="D4">
-        <v>0.01460081958053827</v>
+        <v>0.02644378740342823</v>
       </c>
       <c r="E4">
-        <v>0.1136041286349361</v>
+        <v>0.06876489150391052</v>
       </c>
       <c r="F4">
-        <v>1.445757927319249</v>
+        <v>1.192292039348601</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6652144206421013</v>
+        <v>0.7425255544600091</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9185632412914018</v>
+        <v>0.3638062761704433</v>
       </c>
       <c r="N4">
-        <v>0.7179185728449156</v>
+        <v>1.279164933352767</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.343551249304085</v>
+        <v>0.8680899028225326</v>
       </c>
       <c r="C5">
-        <v>0.9257997972335943</v>
+        <v>0.3020659771148644</v>
       </c>
       <c r="D5">
-        <v>0.01487303206689994</v>
+        <v>0.02655406488512213</v>
       </c>
       <c r="E5">
-        <v>0.1090647843053354</v>
+        <v>0.06773075542664486</v>
       </c>
       <c r="F5">
-        <v>1.397227067633679</v>
+        <v>1.182145330265087</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.649112486508443</v>
+        <v>0.7399689340136888</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8785024912432533</v>
+        <v>0.3533504694242993</v>
       </c>
       <c r="N5">
-        <v>0.729059114648031</v>
+        <v>1.283425591205258</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.325939240068124</v>
+        <v>0.863331970124932</v>
       </c>
       <c r="C6">
-        <v>0.9187504783296561</v>
+        <v>0.3001378004846913</v>
       </c>
       <c r="D6">
-        <v>0.01491915548106881</v>
+        <v>0.0265726273978828</v>
       </c>
       <c r="E6">
-        <v>0.1083155034145662</v>
+        <v>0.06755989741227708</v>
       </c>
       <c r="F6">
-        <v>1.389224420292095</v>
+        <v>1.180474786978834</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6464674829377302</v>
+        <v>0.7395527688929278</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8718723138589297</v>
+        <v>0.3516174114867638</v>
       </c>
       <c r="N6">
-        <v>0.7309319628847391</v>
+        <v>1.284141433036609</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.448437696721669</v>
+        <v>0.8963906310764855</v>
       </c>
       <c r="C7">
-        <v>0.9678021066506233</v>
+        <v>0.3135304241199606</v>
       </c>
       <c r="D7">
-        <v>0.01460442794348893</v>
+        <v>0.02644525779591334</v>
       </c>
       <c r="E7">
-        <v>0.1135426026003863</v>
+        <v>0.06875088701708165</v>
       </c>
       <c r="F7">
-        <v>1.445099604766085</v>
+        <v>1.192154236666994</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6649953064975875</v>
+        <v>0.7424905139467199</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9180214611829882</v>
+        <v>0.3636650556602419</v>
       </c>
       <c r="N7">
-        <v>0.7180672636604015</v>
+        <v>1.279221833122946</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.996202464547878</v>
+        <v>1.043108730473307</v>
       </c>
       <c r="C8">
-        <v>1.187736596942443</v>
+        <v>0.3728584082916768</v>
       </c>
       <c r="D8">
-        <v>0.01336032871915194</v>
+        <v>0.02591992372500229</v>
       </c>
       <c r="E8">
-        <v>0.137337415247039</v>
+        <v>0.07413298794923406</v>
       </c>
       <c r="F8">
-        <v>1.700612352256613</v>
+        <v>1.245787428709249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7513017008548388</v>
+        <v>0.7566760899403562</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.125300501588107</v>
+        <v>0.4172891464775219</v>
       </c>
       <c r="N8">
-        <v>0.6648014922633365</v>
+        <v>1.258732020899409</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.106842493394709</v>
+        <v>1.333951536604218</v>
       </c>
       <c r="C9">
-        <v>1.636657624950317</v>
+        <v>0.4901005027218162</v>
       </c>
       <c r="D9">
-        <v>0.01155883390781831</v>
+        <v>0.025023982524921</v>
       </c>
       <c r="E9">
-        <v>0.1874780448409439</v>
+        <v>0.08515814239237329</v>
       </c>
       <c r="F9">
-        <v>2.242826868379026</v>
+        <v>1.358635580790988</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9409536980222555</v>
+        <v>0.7889546083764714</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.549772723799563</v>
+        <v>0.5241733850616583</v>
       </c>
       <c r="N9">
-        <v>0.5747259728201826</v>
+        <v>1.222969436414317</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.956757334949089</v>
+        <v>1.549682480790921</v>
       </c>
       <c r="C10">
-        <v>1.982911451686675</v>
+        <v>0.5768693767566333</v>
       </c>
       <c r="D10">
-        <v>0.01075881199072626</v>
+        <v>0.02444966655414049</v>
       </c>
       <c r="E10">
-        <v>0.2273957053913875</v>
+        <v>0.09356162687733161</v>
       </c>
       <c r="F10">
-        <v>2.676195200433199</v>
+        <v>1.446373341710967</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.097204062994322</v>
+        <v>0.8154579872626471</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.878083410597384</v>
+        <v>0.6038330271779557</v>
       </c>
       <c r="N10">
-        <v>0.5192785873643828</v>
+        <v>1.19941986094782</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.353843140582114</v>
+        <v>1.648301261758832</v>
       </c>
       <c r="C11">
-        <v>2.145501274015487</v>
+        <v>0.6164983264724242</v>
       </c>
       <c r="D11">
-        <v>0.01054537731499749</v>
+        <v>0.02420708247706571</v>
       </c>
       <c r="E11">
-        <v>0.2464791207098074</v>
+        <v>0.09745405272481378</v>
       </c>
       <c r="F11">
-        <v>2.883552950645253</v>
+        <v>1.487369310619016</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.17313528187141</v>
+        <v>0.8281358075262375</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.032458951084536</v>
+        <v>0.6403357010164825</v>
       </c>
       <c r="N11">
-        <v>0.4969042225005325</v>
+        <v>1.189305283742193</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.506012922598018</v>
+        <v>1.685717092738514</v>
       </c>
       <c r="C12">
-        <v>2.207947801614978</v>
+        <v>0.6315287491469803</v>
       </c>
       <c r="D12">
-        <v>0.01048995612137915</v>
+        <v>0.02411794732159578</v>
       </c>
       <c r="E12">
-        <v>0.2538638219108051</v>
+        <v>0.09893830691741812</v>
       </c>
       <c r="F12">
-        <v>2.963799014128256</v>
+        <v>1.503051786114753</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.202701842477055</v>
+        <v>0.8330271019375459</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.091781891868891</v>
+        <v>0.6541977228741302</v>
       </c>
       <c r="N12">
-        <v>0.4888929617153011</v>
+        <v>1.185561801801185</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.473155056956102</v>
+        <v>1.677655735945905</v>
       </c>
       <c r="C13">
-        <v>2.194457217928459</v>
+        <v>0.6282906013385059</v>
       </c>
       <c r="D13">
-        <v>0.01050069519842722</v>
+        <v>0.0241370222685795</v>
       </c>
       <c r="E13">
-        <v>0.2522659114407233</v>
+        <v>0.09861818491866359</v>
       </c>
       <c r="F13">
-        <v>2.946435428664415</v>
+        <v>1.499667210743382</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.196295969859065</v>
+        <v>0.8319696318308729</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.078964706289455</v>
+        <v>0.6512105245237194</v>
       </c>
       <c r="N13">
-        <v>0.4905968982037763</v>
+        <v>1.186364161444395</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.366324255736004</v>
+        <v>1.651378050666608</v>
       </c>
       <c r="C14">
-        <v>2.150620281003796</v>
+        <v>0.6177344046301982</v>
       </c>
       <c r="D14">
-        <v>0.01054028475670066</v>
+        <v>0.02419969440127545</v>
       </c>
       <c r="E14">
-        <v>0.2470833343376313</v>
+        <v>0.09757595572351363</v>
       </c>
       <c r="F14">
-        <v>2.890118689076161</v>
+        <v>1.488656333238907</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.17555072312237</v>
+        <v>0.8285363973645019</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.037321274846065</v>
+        <v>0.6414753446965591</v>
       </c>
       <c r="N14">
-        <v>0.4962355587802492</v>
+        <v>1.188995564026492</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.301131598334564</v>
+        <v>1.635291514350456</v>
       </c>
       <c r="C15">
-        <v>2.123887894530867</v>
+        <v>0.6112715638602708</v>
       </c>
       <c r="D15">
-        <v>0.0105679655471782</v>
+        <v>0.02423843914073842</v>
       </c>
       <c r="E15">
-        <v>0.2439302800942329</v>
+        <v>0.09693890648997439</v>
       </c>
       <c r="F15">
-        <v>2.855855822440958</v>
+        <v>1.481932524906483</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.162953262119743</v>
+        <v>0.8264452591446769</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.011930597406433</v>
+        <v>0.6355174115283404</v>
       </c>
       <c r="N15">
-        <v>0.4997511633196297</v>
+        <v>1.190618683370381</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.931041766526562</v>
+        <v>1.543247354958282</v>
       </c>
       <c r="C16">
-        <v>1.972400072945334</v>
+        <v>0.5742827978182277</v>
       </c>
       <c r="D16">
-        <v>0.01077609559331805</v>
+        <v>0.02446589924849718</v>
       </c>
       <c r="E16">
-        <v>0.2261692364191177</v>
+        <v>0.09330867140024424</v>
       </c>
       <c r="F16">
-        <v>2.662870421116764</v>
+        <v>1.44371616569785</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.092348891775345</v>
+        <v>0.8146420608913161</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.868107356840255</v>
+        <v>0.6014529223013767</v>
       </c>
       <c r="N16">
-        <v>0.5208023812747982</v>
+        <v>1.20009296692205</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.706880553750977</v>
+        <v>1.486905865424376</v>
       </c>
       <c r="C17">
-        <v>1.880865543033337</v>
+        <v>0.5516325179771684</v>
       </c>
       <c r="D17">
-        <v>0.01094479937663451</v>
+        <v>0.02461025053670696</v>
       </c>
       <c r="E17">
-        <v>0.2155270099322806</v>
+        <v>0.09109966183652318</v>
       </c>
       <c r="F17">
-        <v>2.547266788979414</v>
+        <v>1.420550883784529</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.050355006296158</v>
+        <v>0.8075611152854378</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.781257847147572</v>
+        <v>0.580624158679143</v>
       </c>
       <c r="N17">
-        <v>0.5344807487500347</v>
+        <v>1.206058825459166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.578912815627461</v>
+        <v>1.454544961506485</v>
       </c>
       <c r="C18">
-        <v>1.828685183705147</v>
+        <v>0.5386194157021578</v>
       </c>
       <c r="D18">
-        <v>0.01105573900241374</v>
+        <v>0.02469503289430897</v>
       </c>
       <c r="E18">
-        <v>0.2094911927096277</v>
+        <v>0.08983563671677786</v>
       </c>
       <c r="F18">
-        <v>2.481718943759716</v>
+        <v>1.407328678409044</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.026650118072823</v>
+        <v>0.8035467535544853</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.731767689520339</v>
+        <v>0.5686688887573155</v>
       </c>
       <c r="N18">
-        <v>0.5426128206041057</v>
+        <v>1.20954649875209</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.535742280596821</v>
+        <v>1.443595830569336</v>
       </c>
       <c r="C19">
-        <v>1.811094037661974</v>
+        <v>0.5342158990137023</v>
       </c>
       <c r="D19">
-        <v>0.01109558535985755</v>
+        <v>0.02472403899102105</v>
       </c>
       <c r="E19">
-        <v>0.2074615137788385</v>
+        <v>0.08940877461525076</v>
       </c>
       <c r="F19">
-        <v>2.459680579941164</v>
+        <v>1.402869288389525</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.018697902859969</v>
+        <v>0.8021975573637832</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.715086781551122</v>
+        <v>0.5646252795236251</v>
       </c>
       <c r="N19">
-        <v>0.545410198654146</v>
+        <v>1.210737009267518</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.730641116674178</v>
+        <v>1.492898819256709</v>
       </c>
       <c r="C20">
-        <v>1.890560129920516</v>
+        <v>0.5540421450086797</v>
       </c>
       <c r="D20">
-        <v>0.01092537621016376</v>
+        <v>0.02459470213551818</v>
       </c>
       <c r="E20">
-        <v>0.2166508933247613</v>
+        <v>0.0913341360459512</v>
       </c>
       <c r="F20">
-        <v>2.559473531618579</v>
+        <v>1.423006309233557</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.054778087582122</v>
+        <v>0.8083088405401071</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.790454208480327</v>
+        <v>0.5828388325993359</v>
       </c>
       <c r="N20">
-        <v>0.5329969239346966</v>
+        <v>1.205417921215307</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.397651544093378</v>
+        <v>1.65909450150906</v>
       </c>
       <c r="C21">
-        <v>2.163471156430376</v>
+        <v>0.6208343601414299</v>
       </c>
       <c r="D21">
-        <v>0.01052793363934512</v>
+        <v>0.02418121176135202</v>
       </c>
       <c r="E21">
-        <v>0.2486010672432357</v>
+        <v>0.09788180267171498</v>
       </c>
       <c r="F21">
-        <v>2.906611262552246</v>
+        <v>1.491886182556414</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.181621033223948</v>
+        <v>0.8295423568430209</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.049528266889126</v>
+        <v>0.6443337286200546</v>
       </c>
       <c r="N21">
-        <v>0.4945663725015592</v>
+        <v>1.18822029926023</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.844257344994276</v>
+        <v>1.768127908675524</v>
       </c>
       <c r="C22">
-        <v>2.347033389989861</v>
+        <v>0.664626213340739</v>
       </c>
       <c r="D22">
-        <v>0.01041850095143459</v>
+        <v>0.02392688152733058</v>
       </c>
       <c r="E22">
-        <v>0.2704194121699786</v>
+        <v>0.1022211083982185</v>
       </c>
       <c r="F22">
-        <v>3.143683268708742</v>
+        <v>1.537826346321367</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.269326071028971</v>
+        <v>0.8439476061414268</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.223968059638523</v>
+        <v>0.6847535241899294</v>
       </c>
       <c r="N22">
-        <v>0.4721693862862324</v>
+        <v>1.17748626304499</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.604807826937986</v>
+        <v>1.709896165592909</v>
       </c>
       <c r="C23">
-        <v>2.248532256815452</v>
+        <v>0.6412405406789503</v>
       </c>
       <c r="D23">
-        <v>0.01046172814539048</v>
+        <v>0.02406115298308009</v>
       </c>
       <c r="E23">
-        <v>0.2586793674180115</v>
+        <v>0.09989955885980351</v>
       </c>
       <c r="F23">
-        <v>3.016125710723969</v>
+        <v>1.513221954022299</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.222033689011539</v>
+        <v>0.8362105694615991</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.130345087701158</v>
+        <v>0.6631593567838365</v>
       </c>
       <c r="N23">
-        <v>0.4838549800444554</v>
+        <v>1.18316873594415</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.719896167619709</v>
+        <v>1.490189309746768</v>
       </c>
       <c r="C24">
-        <v>1.886175834852054</v>
+        <v>0.5529527251653121</v>
       </c>
       <c r="D24">
-        <v>0.01093411424917434</v>
+        <v>0.02460172598616417</v>
       </c>
       <c r="E24">
-        <v>0.2161425304012425</v>
+        <v>0.09122811169944356</v>
       </c>
       <c r="F24">
-        <v>2.553952034442233</v>
+        <v>1.421895913097075</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.052777056885873</v>
+        <v>0.8079706178408657</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.786295170991721</v>
+        <v>0.581837517979892</v>
       </c>
       <c r="N24">
-        <v>0.5336669295754888</v>
+        <v>1.205707493972184</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.801360812439214</v>
+        <v>1.254921411902217</v>
       </c>
       <c r="C25">
-        <v>1.512782442125626</v>
+        <v>0.4582785970085865</v>
       </c>
       <c r="D25">
-        <v>0.01196521757014679</v>
+        <v>0.02525177308576154</v>
       </c>
       <c r="E25">
-        <v>0.1734499876845135</v>
+        <v>0.08212346921155955</v>
       </c>
       <c r="F25">
-        <v>2.09078903059887</v>
+        <v>1.327270233735618</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8870353417405283</v>
+        <v>0.7797377847152376</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.432491527361378</v>
+        <v>0.4950653572952177</v>
       </c>
       <c r="N25">
-        <v>0.597366999279167</v>
+        <v>1.232167932425583</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_242/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_242/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.083068580487122</v>
+        <v>3.146702832476535</v>
       </c>
       <c r="C2">
-        <v>0.3889912089761083</v>
+        <v>1.248334576980881</v>
       </c>
       <c r="D2">
-        <v>0.0257865923873819</v>
+        <v>0.01306212442305998</v>
       </c>
       <c r="E2">
-        <v>0.07562253673345154</v>
+        <v>0.1439887897525196</v>
       </c>
       <c r="F2">
-        <v>1.260833122626792</v>
+        <v>1.772302535921824</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7608190033731219</v>
+        <v>0.7759202283081663</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4319326158130963</v>
+        <v>1.182501040243878</v>
       </c>
       <c r="N2">
-        <v>1.253478116961475</v>
+        <v>0.6512778613175954</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9674094650524125</v>
+        <v>2.71269144316858</v>
       </c>
       <c r="C3">
-        <v>0.3422684674269476</v>
+        <v>1.073781982961123</v>
       </c>
       <c r="D3">
-        <v>0.02618341187955409</v>
+        <v>0.01397208989363996</v>
       </c>
       <c r="E3">
-        <v>0.07133779144054841</v>
+        <v>0.1249383379666362</v>
       </c>
       <c r="F3">
-        <v>1.217775299302218</v>
+        <v>1.567258490174225</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.749140164128562</v>
+        <v>0.7059569023808265</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3895921539997005</v>
+        <v>1.01783483723105</v>
       </c>
       <c r="N3">
-        <v>1.269049954758387</v>
+        <v>0.6915412449171967</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8967779099125437</v>
+        <v>2.449874571940029</v>
       </c>
       <c r="C4">
-        <v>0.313687255838488</v>
+        <v>0.9683777583633741</v>
       </c>
       <c r="D4">
-        <v>0.02644378740342823</v>
+        <v>0.0146008195804459</v>
       </c>
       <c r="E4">
-        <v>0.06876489150391052</v>
+        <v>0.1136041286349503</v>
       </c>
       <c r="F4">
-        <v>1.192292039348601</v>
+        <v>1.445757927319249</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7425255544600091</v>
+        <v>0.6652144206421013</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3638062761704433</v>
+        <v>0.9185632412914089</v>
       </c>
       <c r="N4">
-        <v>1.279164933352767</v>
+        <v>0.7179185728449085</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8680899028225326</v>
+        <v>2.343551249304028</v>
       </c>
       <c r="C5">
-        <v>0.3020659771148644</v>
+        <v>0.9257997972337648</v>
       </c>
       <c r="D5">
-        <v>0.02655406488512213</v>
+        <v>0.01487303206689461</v>
       </c>
       <c r="E5">
-        <v>0.06773075542664486</v>
+        <v>0.1090647843053141</v>
       </c>
       <c r="F5">
-        <v>1.182145330265087</v>
+        <v>1.397227067633679</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7399689340136888</v>
+        <v>0.6491124865084359</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3533504694242993</v>
+        <v>0.878502491243232</v>
       </c>
       <c r="N5">
-        <v>1.283425591205258</v>
+        <v>0.729059114648031</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.863331970124932</v>
+        <v>2.325939240068124</v>
       </c>
       <c r="C6">
-        <v>0.3001378004846913</v>
+        <v>0.9187504783297697</v>
       </c>
       <c r="D6">
-        <v>0.0265726273978828</v>
+        <v>0.01491915548104927</v>
       </c>
       <c r="E6">
-        <v>0.06755989741227708</v>
+        <v>0.1083155034145484</v>
       </c>
       <c r="F6">
-        <v>1.180474786978834</v>
+        <v>1.389224420292095</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7395527688929278</v>
+        <v>0.6464674829377159</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3516174114867638</v>
+        <v>0.871872313858951</v>
       </c>
       <c r="N6">
-        <v>1.284141433036609</v>
+        <v>0.7309319628846964</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8963906310764855</v>
+        <v>2.44843769672184</v>
       </c>
       <c r="C7">
-        <v>0.3135304241199606</v>
+        <v>0.9678021066508222</v>
       </c>
       <c r="D7">
-        <v>0.02644525779591334</v>
+        <v>0.01460442794347472</v>
       </c>
       <c r="E7">
-        <v>0.06875088701708165</v>
+        <v>0.113542602600365</v>
       </c>
       <c r="F7">
-        <v>1.192154236666994</v>
+        <v>1.445099604766099</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7424905139467199</v>
+        <v>0.6649953064975875</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3636650556602419</v>
+        <v>0.9180214611829882</v>
       </c>
       <c r="N7">
-        <v>1.279221833122946</v>
+        <v>0.7180672636604442</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.043108730473307</v>
+        <v>2.996202464547764</v>
       </c>
       <c r="C8">
-        <v>0.3728584082916768</v>
+        <v>1.187736596942273</v>
       </c>
       <c r="D8">
-        <v>0.02591992372500229</v>
+        <v>0.0133603287192372</v>
       </c>
       <c r="E8">
-        <v>0.07413298794923406</v>
+        <v>0.1373374152470603</v>
       </c>
       <c r="F8">
-        <v>1.245787428709249</v>
+        <v>1.700612352256599</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7566760899403562</v>
+        <v>0.7513017008548317</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4172891464775219</v>
+        <v>1.125300501588107</v>
       </c>
       <c r="N8">
-        <v>1.258732020899409</v>
+        <v>0.6648014922633081</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.333951536604218</v>
+        <v>4.106842493394709</v>
       </c>
       <c r="C9">
-        <v>0.4901005027218162</v>
+        <v>1.636657624950658</v>
       </c>
       <c r="D9">
-        <v>0.025023982524921</v>
+        <v>0.01155883390790535</v>
       </c>
       <c r="E9">
-        <v>0.08515814239237329</v>
+        <v>0.1874780448410007</v>
       </c>
       <c r="F9">
-        <v>1.358635580790988</v>
+        <v>2.242826868379069</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7889546083764714</v>
+        <v>0.9409536980222839</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5241733850616583</v>
+        <v>1.549772723799578</v>
       </c>
       <c r="N9">
-        <v>1.222969436414317</v>
+        <v>0.5747259728201684</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.549682480790921</v>
+        <v>4.956757334949145</v>
       </c>
       <c r="C10">
-        <v>0.5768693767566333</v>
+        <v>1.982911451687187</v>
       </c>
       <c r="D10">
-        <v>0.02444966655414049</v>
+        <v>0.01075881199081863</v>
       </c>
       <c r="E10">
-        <v>0.09356162687733161</v>
+        <v>0.2273957053914089</v>
       </c>
       <c r="F10">
-        <v>1.446373341710967</v>
+        <v>2.676195200433284</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8154579872626471</v>
+        <v>1.097204062994322</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6038330271779557</v>
+        <v>1.87808341059737</v>
       </c>
       <c r="N10">
-        <v>1.19941986094782</v>
+        <v>0.5192785873643544</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.648301261758832</v>
+        <v>5.353843140582001</v>
       </c>
       <c r="C11">
-        <v>0.6164983264724242</v>
+        <v>2.145501274015089</v>
       </c>
       <c r="D11">
-        <v>0.02420708247706571</v>
+        <v>0.01054537731498684</v>
       </c>
       <c r="E11">
-        <v>0.09745405272481378</v>
+        <v>0.2464791207098216</v>
       </c>
       <c r="F11">
-        <v>1.487369310619016</v>
+        <v>2.883552950645253</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8281358075262375</v>
+        <v>1.173135281871438</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6403357010164825</v>
+        <v>2.032458951084564</v>
       </c>
       <c r="N11">
-        <v>1.189305283742193</v>
+        <v>0.4969042225005253</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.685717092738514</v>
+        <v>5.506012922598131</v>
       </c>
       <c r="C12">
-        <v>0.6315287491469803</v>
+        <v>2.20794780161458</v>
       </c>
       <c r="D12">
-        <v>0.02411794732159578</v>
+        <v>0.01048995612136849</v>
       </c>
       <c r="E12">
-        <v>0.09893830691741812</v>
+        <v>0.2538638219107909</v>
       </c>
       <c r="F12">
-        <v>1.503051786114753</v>
+        <v>2.963799014128284</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8330271019375459</v>
+        <v>1.202701842477083</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6541977228741302</v>
+        <v>2.091781891868905</v>
       </c>
       <c r="N12">
-        <v>1.185561801801185</v>
+        <v>0.4888929617152371</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.677655735945905</v>
+        <v>5.473155056956045</v>
       </c>
       <c r="C13">
-        <v>0.6282906013385059</v>
+        <v>2.194457217928289</v>
       </c>
       <c r="D13">
-        <v>0.0241370222685795</v>
+        <v>0.01050069519853736</v>
       </c>
       <c r="E13">
-        <v>0.09861818491866359</v>
+        <v>0.2522659114407801</v>
       </c>
       <c r="F13">
-        <v>1.499667210743382</v>
+        <v>2.946435428664444</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8319696318308729</v>
+        <v>1.196295969859094</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6512105245237194</v>
+        <v>2.07896470628944</v>
       </c>
       <c r="N13">
-        <v>1.186364161444395</v>
+        <v>0.4905968982037692</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.651378050666608</v>
+        <v>5.366324255735833</v>
       </c>
       <c r="C14">
-        <v>0.6177344046301982</v>
+        <v>2.150620281003683</v>
       </c>
       <c r="D14">
-        <v>0.02419969440127545</v>
+        <v>0.01054028475679658</v>
       </c>
       <c r="E14">
-        <v>0.09757595572351363</v>
+        <v>0.2470833343376171</v>
       </c>
       <c r="F14">
-        <v>1.488656333238907</v>
+        <v>2.890118689076218</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8285363973645019</v>
+        <v>1.17555072312237</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6414753446965591</v>
+        <v>2.037321274846079</v>
       </c>
       <c r="N14">
-        <v>1.188995564026492</v>
+        <v>0.496235558780235</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.635291514350456</v>
+        <v>5.30113159833445</v>
       </c>
       <c r="C15">
-        <v>0.6112715638602708</v>
+        <v>2.123887894530924</v>
       </c>
       <c r="D15">
-        <v>0.02423843914073842</v>
+        <v>0.01056796554729544</v>
       </c>
       <c r="E15">
-        <v>0.09693890648997439</v>
+        <v>0.2439302800942684</v>
       </c>
       <c r="F15">
-        <v>1.481932524906483</v>
+        <v>2.855855822440958</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8264452591446769</v>
+        <v>1.162953262119743</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6355174115283404</v>
+        <v>2.011930597406447</v>
       </c>
       <c r="N15">
-        <v>1.190618683370381</v>
+        <v>0.4997511633196297</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.543247354958282</v>
+        <v>4.931041766526562</v>
       </c>
       <c r="C16">
-        <v>0.5742827978182277</v>
+        <v>1.972400072945391</v>
       </c>
       <c r="D16">
-        <v>0.02446589924849718</v>
+        <v>0.01077609559331805</v>
       </c>
       <c r="E16">
-        <v>0.09330867140024424</v>
+        <v>0.2261692364191248</v>
       </c>
       <c r="F16">
-        <v>1.44371616569785</v>
+        <v>2.662870421116764</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8146420608913161</v>
+        <v>1.092348891775373</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6014529223013767</v>
+        <v>1.86810735684027</v>
       </c>
       <c r="N16">
-        <v>1.20009296692205</v>
+        <v>0.5208023812747342</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.486905865424376</v>
+        <v>4.706880553750921</v>
       </c>
       <c r="C17">
-        <v>0.5516325179771684</v>
+        <v>1.880865543033394</v>
       </c>
       <c r="D17">
-        <v>0.02461025053670696</v>
+        <v>0.01094479937661674</v>
       </c>
       <c r="E17">
-        <v>0.09109966183652318</v>
+        <v>0.2155270099322664</v>
       </c>
       <c r="F17">
-        <v>1.420550883784529</v>
+        <v>2.547266788979442</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8075611152854378</v>
+        <v>1.050355006296172</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.580624158679143</v>
+        <v>1.7812578471476</v>
       </c>
       <c r="N17">
-        <v>1.206058825459166</v>
+        <v>0.5344807487500276</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.454544961506485</v>
+        <v>4.578912815627461</v>
       </c>
       <c r="C18">
-        <v>0.5386194157021578</v>
+        <v>1.828685183705318</v>
       </c>
       <c r="D18">
-        <v>0.02469503289430897</v>
+        <v>0.01105573900228229</v>
       </c>
       <c r="E18">
-        <v>0.08983563671677786</v>
+        <v>0.2094911927096277</v>
       </c>
       <c r="F18">
-        <v>1.407328678409044</v>
+        <v>2.481718943759745</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8035467535544853</v>
+        <v>1.026650118072823</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5686688887573155</v>
+        <v>1.731767689520382</v>
       </c>
       <c r="N18">
-        <v>1.20954649875209</v>
+        <v>0.5426128206040133</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.443595830569336</v>
+        <v>4.535742280596594</v>
       </c>
       <c r="C19">
-        <v>0.5342158990137023</v>
+        <v>1.811094037662258</v>
       </c>
       <c r="D19">
-        <v>0.02472403899102105</v>
+        <v>0.01109558535973143</v>
       </c>
       <c r="E19">
-        <v>0.08940877461525076</v>
+        <v>0.2074615137787887</v>
       </c>
       <c r="F19">
-        <v>1.402869288389525</v>
+        <v>2.459680579941192</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8021975573637832</v>
+        <v>1.018697902859955</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5646252795236251</v>
+        <v>1.715086781551136</v>
       </c>
       <c r="N19">
-        <v>1.210737009267518</v>
+        <v>0.5454101986541957</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.492898819256709</v>
+        <v>4.730641116674235</v>
       </c>
       <c r="C20">
-        <v>0.5540421450086797</v>
+        <v>1.890560129920971</v>
       </c>
       <c r="D20">
-        <v>0.02459470213551818</v>
+        <v>0.01092537621005363</v>
       </c>
       <c r="E20">
-        <v>0.0913341360459512</v>
+        <v>0.2166508933248252</v>
       </c>
       <c r="F20">
-        <v>1.423006309233557</v>
+        <v>2.559473531618579</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8083088405401071</v>
+        <v>1.054778087582122</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5828388325993359</v>
+        <v>1.790454208480341</v>
       </c>
       <c r="N20">
-        <v>1.205417921215307</v>
+        <v>0.5329969239346752</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.65909450150906</v>
+        <v>5.397651544093264</v>
       </c>
       <c r="C21">
-        <v>0.6208343601414299</v>
+        <v>2.163471156430205</v>
       </c>
       <c r="D21">
-        <v>0.02418121176135202</v>
+        <v>0.01052793363932736</v>
       </c>
       <c r="E21">
-        <v>0.09788180267171498</v>
+        <v>0.2486010672432499</v>
       </c>
       <c r="F21">
-        <v>1.491886182556414</v>
+        <v>2.906611262552303</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8295423568430209</v>
+        <v>1.181621033223962</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6443337286200546</v>
+        <v>2.049528266889126</v>
       </c>
       <c r="N21">
-        <v>1.18822029926023</v>
+        <v>0.4945663725015592</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.768127908675524</v>
+        <v>5.844257344994219</v>
       </c>
       <c r="C22">
-        <v>0.664626213340739</v>
+        <v>2.347033389989576</v>
       </c>
       <c r="D22">
-        <v>0.02392688152733058</v>
+        <v>0.01041850095153762</v>
       </c>
       <c r="E22">
-        <v>0.1022211083982185</v>
+        <v>0.2704194121699501</v>
       </c>
       <c r="F22">
-        <v>1.537826346321367</v>
+        <v>3.143683268708742</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8439476061414268</v>
+        <v>1.269326071028971</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6847535241899294</v>
+        <v>2.223968059638537</v>
       </c>
       <c r="N22">
-        <v>1.17748626304499</v>
+        <v>0.4721693862862821</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.709896165592909</v>
+        <v>5.604807826937986</v>
       </c>
       <c r="C23">
-        <v>0.6412405406789503</v>
+        <v>2.248532256815395</v>
       </c>
       <c r="D23">
-        <v>0.02406115298308009</v>
+        <v>0.01046172814527324</v>
       </c>
       <c r="E23">
-        <v>0.09989955885980351</v>
+        <v>0.2586793674180043</v>
       </c>
       <c r="F23">
-        <v>1.513221954022299</v>
+        <v>3.016125710723912</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8362105694615991</v>
+        <v>1.222033689011553</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6631593567838365</v>
+        <v>2.130345087701173</v>
       </c>
       <c r="N23">
-        <v>1.18316873594415</v>
+        <v>0.4838549800444483</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.490189309746768</v>
+        <v>4.719896167619936</v>
       </c>
       <c r="C24">
-        <v>0.5529527251653121</v>
+        <v>1.886175834852054</v>
       </c>
       <c r="D24">
-        <v>0.02460172598616417</v>
+        <v>0.01093411424905355</v>
       </c>
       <c r="E24">
-        <v>0.09122811169944356</v>
+        <v>0.2161425304012781</v>
       </c>
       <c r="F24">
-        <v>1.421895913097075</v>
+        <v>2.553952034442261</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8079706178408657</v>
+        <v>1.052777056885873</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.581837517979892</v>
+        <v>1.786295170991707</v>
       </c>
       <c r="N24">
-        <v>1.205707493972184</v>
+        <v>0.5336669295754888</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.254921411902217</v>
+        <v>3.801360812438986</v>
       </c>
       <c r="C25">
-        <v>0.4582785970085865</v>
+        <v>1.512782442125911</v>
       </c>
       <c r="D25">
-        <v>0.02525177308576154</v>
+        <v>0.01196521757024627</v>
       </c>
       <c r="E25">
-        <v>0.08212346921155955</v>
+        <v>0.1734499876844779</v>
       </c>
       <c r="F25">
-        <v>1.327270233735618</v>
+        <v>2.090789030598884</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7797377847152376</v>
+        <v>0.8870353417405283</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4950653572952177</v>
+        <v>1.432491527361364</v>
       </c>
       <c r="N25">
-        <v>1.232167932425583</v>
+        <v>0.5973669992791528</v>
       </c>
       <c r="O25">
         <v>0</v>
